--- a/Lab3/1150080068_CNPM1_TranMinhNhat_Lab4.xlsx
+++ b/Lab3/1150080068_CNPM1_TranMinhNhat_Lab4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEFAE2E-15A9-4809-A015-D9FE2B4E8E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBCBCC6-5223-43C0-BCF4-190E0CA1E281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab2_bài1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Lab3_bài3" sheetId="10" r:id="rId7"/>
     <sheet name="Lab4_bài1" sheetId="11" r:id="rId8"/>
     <sheet name="Lab4_bài2" sheetId="12" r:id="rId9"/>
+    <sheet name="Lab4_bài3" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="356">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -888,18 +889,247 @@
   </si>
   <si>
     <t>Có 3 điều kiện đầu vào: Mua đúng dịp sinh nhật, Có thẻ tích điểm, Có voucher giảm giá</t>
+  </si>
+  <si>
+    <t>Mua đúng dịp sinh nhật</t>
+  </si>
+  <si>
+    <t>Có thẻ tích điểm</t>
+  </si>
+  <si>
+    <t>Có voucher giảm giá</t>
+  </si>
+  <si>
+    <t>Kiểm tra chiết khấu theo ưu đãi cao nhất.</t>
+  </si>
+  <si>
+    <t>TC01: Có voucher giảm giá -&gt; Chiết khấu 25%</t>
+  </si>
+  <si>
+    <t>TC02: Không có voucher và có thẻ tích điểm -&gt; Chiết khấu 10%</t>
+  </si>
+  <si>
+    <t>TC03: Không có voucher, không có thẻ tích điểm và mua đúng dịp sinh nhật -&gt; Chiết khấu 5%</t>
+  </si>
+  <si>
+    <t>TC04: Không có voucher, không có thẻ tích điểm và không mua đúng dịp sinh nhật -&gt; Chiết khấu 0%</t>
+  </si>
+  <si>
+    <t>Chiết khấu 25%</t>
+  </si>
+  <si>
+    <t>Chiết khấu 10%</t>
+  </si>
+  <si>
+    <t>Chiết khấu 5%</t>
+  </si>
+  <si>
+    <t>Chiết khấu 0%</t>
+  </si>
+  <si>
+    <t>Hành động: Chiết khấu 5%, Chiết khấu 10%, Chiết khấu 25%, Chiết khấu 0%, không hợp lệ</t>
+  </si>
+  <si>
+    <t>Hệ thống có chức năng xác định khách hàng mua đúng dịp sinh nhật</t>
+  </si>
+  <si>
+    <t>Hệ thống có chức năng kiểm tra khách hàng có thẻ tích điểm</t>
+  </si>
+  <si>
+    <t>Hệ thống có chức năng nhập/áp dụng voucher giảm giá</t>
+  </si>
+  <si>
+    <t>Mỗi hóa đơn chỉ được áp dụng 1 ưu đãi và ưu đãi cao nhất sẽ được áp dụng nếu có nhiều ưu đãi</t>
+  </si>
+  <si>
+    <t>Có voucher -&gt; Chiết khấu 25%</t>
+  </si>
+  <si>
+    <t>Không có voucher, có thẻ tích điểm -&gt; Chiết khấu 10%</t>
+  </si>
+  <si>
+    <t>Không có voucher, không có thẻ tích điểm, mua đúng dịp sinh nhật -&gt; Chiết khấu 5%</t>
+  </si>
+  <si>
+    <t>Không có voucher, không có thẻ tích điểm, không mua đúng dịp sinh nhật -&gt; Chiết khấu 0%</t>
+  </si>
+  <si>
+    <t>Nhập đồng thời nhiều ưu đãi nhưng hệ thống áp dụng cộng dồn -&gt; Không hợp lệ (vì yêu cầu chỉ lấy ưu đãi cao nhất)</t>
+  </si>
+  <si>
+    <t>Voucher không hợp lệ / hết hạn</t>
+  </si>
+  <si>
+    <t>Không xác định được trạng thái sinh nhật / thẻ tích điểm (dữ liệu trống)</t>
+  </si>
+  <si>
+    <t>Test Case 1: Có voucher</t>
+  </si>
+  <si>
+    <t>Test Case 2: Có thẻ tích điểm (không voucher)</t>
+  </si>
+  <si>
+    <t>Có thẻ tích điểm, không voucher</t>
+  </si>
+  <si>
+    <t>Test Case 3: Mua đúng dịp sinh nhật (không voucher, không thẻ)</t>
+  </si>
+  <si>
+    <t>Mua đúng dịp sinh nhật, không thẻ tích điểm, không voucher</t>
+  </si>
+  <si>
+    <t>Test Case 4: Không có ưu đãi</t>
+  </si>
+  <si>
+    <t>Không mua đúng dịp sinh nhật, không thẻ tích điểm, không voucher</t>
+  </si>
+  <si>
+    <t>BA4_003</t>
+  </si>
+  <si>
+    <t>Có 3 điều kiện đầu vào: Khách hàng mới và muốn mở thẻ, Đã là khách hàng và có thẻ loyalty, Có phiếu mua hàng</t>
+  </si>
+  <si>
+    <t>Khách hàng mới và muốn mở thẻ</t>
+  </si>
+  <si>
+    <t>Đã là khách hàng và có thẻ</t>
+  </si>
+  <si>
+    <t>Có phiếu mua hàng</t>
+  </si>
+  <si>
+    <t>Rút R1 cho R3, R2 cho R4</t>
+  </si>
+  <si>
+    <t>Rút R1 với R3, R2 với R6, R5 với R7</t>
+  </si>
+  <si>
+    <t>Rút thêm R1 với R5</t>
+  </si>
+  <si>
+    <t>TC01: Khách hàng mới mở thẻ và có phiếu tháng -&gt; Không hợp lệ</t>
+  </si>
+  <si>
+    <t>TC02: Khách hàng mới mở thẻ và không có phiếu tháng -&gt; Giảm 15%</t>
+  </si>
+  <si>
+    <t>TC03: Khách hàng cũ có thẻ và có phiếu tháng -&gt; Giảm 30%</t>
+  </si>
+  <si>
+    <t>TC04: Khách hàng cũ có thẻ và không có phiếu tháng -&gt; Giảm 10%</t>
+  </si>
+  <si>
+    <t>TC05: Khách hàng cũ không có thẻ và có phiếu tháng -&gt; Giảm 20%</t>
+  </si>
+  <si>
+    <t>TC06: Khách hàng cũ không có thẻ và không có phiếu tháng -&gt; Giảm 0%</t>
+  </si>
+  <si>
+    <t>Hệ thống có chức năng xác định khách hàng mới có yêu cầu mở thẻ tín dụng</t>
+  </si>
+  <si>
+    <t>Hệ thống có chức năng xác định khách hàng cũ và trạng thái loyalty</t>
+  </si>
+  <si>
+    <t>Hệ thống có chức năng kiểm tra khách hàng có phiếu mua hàng tháng</t>
+  </si>
+  <si>
+    <t>Hệ thống áp dụng đúng quy tắc: không áp dụng phiếu tháng 20% cho khách hàng mới và giảm giá được cộng dồn nếu áp dụng hợp lệ</t>
+  </si>
+  <si>
+    <t>Khách hàng mới mở thẻ tín dụng</t>
+  </si>
+  <si>
+    <t>Khách hàng cũ có loyalty</t>
+  </si>
+  <si>
+    <t>Có phiếu mua hàng tháng</t>
+  </si>
+  <si>
+    <t>KH cũ có loyalty, không có phiếu tháng -&gt; Giảm 10%</t>
+  </si>
+  <si>
+    <t>KH cũ không loyalty, có phiếu tháng -&gt; Giảm 20%</t>
+  </si>
+  <si>
+    <t>KH mới mở thẻ, không có phiếu tháng -&gt; Giảm 15%</t>
+  </si>
+  <si>
+    <t>KH cũ có loyalty, có phiếu tháng -&gt; Giảm 30%</t>
+  </si>
+  <si>
+    <t>KH cũ không loyalty, không có phiếu tháng -&gt; Giảm 0%</t>
+  </si>
+  <si>
+    <t>Không xác định được trạng thái khách hàng/phiếu (dữ liệu trống)</t>
+  </si>
+  <si>
+    <t>KH mới mở thẻ có phiếu tháng</t>
+  </si>
+  <si>
+    <t>Dữ liệu mâu thuẫn: vừa chọn KH mới vừa chọn KH cũ loyalty</t>
+  </si>
+  <si>
+    <t>Test Case 1: Khách hàng mới mở thẻ (không phiếu tháng)</t>
+  </si>
+  <si>
+    <t>Khách hàng mới, yêu cầu mở thẻ tín dụng, không có phiếu mua hàng tháng</t>
+  </si>
+  <si>
+    <t>Test Case 2: Khách hàng cũ có loyalty (không phiếu tháng)</t>
+  </si>
+  <si>
+    <t>Khách hàng cũ, có loyalty, không có phiếu mua hàng tháng</t>
+  </si>
+  <si>
+    <t>Test Case 3: Khách hàng cũ có phiếu tháng (không loyalty)</t>
+  </si>
+  <si>
+    <t>Khách hàng cũ, không loyalty, có phiếu mua hàng tháng</t>
+  </si>
+  <si>
+    <t>Test Case 4: Khách hàng cũ có loyalty và có phiếu tháng (cộng dồn)</t>
+  </si>
+  <si>
+    <t>Khách hàng cũ, có loyalty, có phiếu mua hàng tháng</t>
+  </si>
+  <si>
+    <t>Giảm 30%</t>
+  </si>
+  <si>
+    <t>Test Case 5: Không có ưu đãi</t>
+  </si>
+  <si>
+    <t>Khách hàng cũ, không loyalty, không có phiếu mua hàng tháng</t>
+  </si>
+  <si>
+    <t>Test Case 6: Khách hàng mới mở thẻ (có phiếu tháng)</t>
+  </si>
+  <si>
+    <t>Khách hàng mới, yêu cầu mở thẻ tín dụng, có phiếu mua hàng tháng</t>
+  </si>
+  <si>
+    <t>Điều kiện giảm giá cho khách hàng của ngân hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,6 +1210,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1153,12 +1389,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1170,10 +1406,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1191,34 +1427,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1227,29 +1463,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1260,16 +1484,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1278,24 +1526,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1590,37 +1844,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -1632,26 +1886,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -1793,10 +2047,10 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -1808,10 +2062,10 @@
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="1">
         <v>40</v>
       </c>
@@ -1823,10 +2077,10 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="1">
         <v>450</v>
       </c>
@@ -1838,10 +2092,10 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="1">
         <v>1450</v>
       </c>
@@ -1851,11 +2105,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -1864,12 +2113,812 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF60AA2-EBD8-4ED4-857E-7208A3F27E6A}">
+  <dimension ref="A1:J64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="3">
+        <v>46035</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="28">
+        <v>2</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="28">
+        <v>3</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="58">
+      <c r="A12" s="5">
+        <v>4</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="E14" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="70"/>
+    </row>
+    <row r="15" spans="1:10" ht="43.5">
+      <c r="B15" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="58">
+      <c r="A16" s="17"/>
+      <c r="B16" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="58">
+      <c r="B17" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.5">
+      <c r="B18" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.5">
+      <c r="B19" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="41"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="58">
+      <c r="A22" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.5">
+      <c r="A23" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.5">
+      <c r="A24" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.5">
+      <c r="A25" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.5">
+      <c r="A26" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.5">
+      <c r="A27" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="64" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="29">
+      <c r="A34" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="29">
+      <c r="A47" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="64"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="64" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="64" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1893,37 +2942,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -1935,26 +2984,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -2033,7 +3082,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="17"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="42" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="1"/>
@@ -2061,7 +3110,7 @@
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="41" t="s">
         <v>239</v>
       </c>
       <c r="D17" t="s">
@@ -2075,10 +3124,10 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="1">
         <v>21321</v>
       </c>
@@ -2090,10 +3139,10 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="1">
         <v>213213</v>
       </c>
@@ -2105,10 +3154,10 @@
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="1">
         <v>2132132132</v>
       </c>
@@ -2120,10 +3169,10 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="1">
         <v>21321321321</v>
       </c>
@@ -2133,11 +3182,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -2146,6 +3190,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2171,37 +3220,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -2213,26 +3262,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -2391,10 +3440,10 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="6">
         <v>0.33333333333333298</v>
       </c>
@@ -2406,10 +3455,10 @@
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="9">
         <v>0.41666666666666702</v>
       </c>
@@ -2421,10 +3470,10 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="9">
         <v>0.66597222222222197</v>
       </c>
@@ -2436,10 +3485,10 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="9">
         <v>0.66666666666666696</v>
       </c>
@@ -2451,10 +3500,10 @@
       <c r="A26" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="9">
         <v>0.77083333333333304</v>
       </c>
@@ -2466,10 +3515,10 @@
       <c r="A27" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="9">
         <v>0.83333333333333304</v>
       </c>
@@ -2479,21 +3528,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2520,37 +3569,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -2562,26 +3611,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -2727,10 +3776,10 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="28">
         <v>30</v>
       </c>
@@ -2742,10 +3791,10 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="28">
         <v>50</v>
       </c>
@@ -2757,10 +3806,10 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="28">
         <v>120</v>
       </c>
@@ -2772,10 +3821,10 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="28">
         <v>180</v>
       </c>
@@ -2787,10 +3836,10 @@
       <c r="A25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="28">
         <v>220</v>
       </c>
@@ -2800,6 +3849,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A1:B1"/>
@@ -2809,11 +3863,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2839,36 +3888,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -2879,26 +3928,26 @@
       <c r="I2" s="18"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -3282,36 +4331,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -3322,26 +4371,26 @@
       <c r="I2" s="18"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -3731,36 +4780,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -3771,26 +4820,26 @@
       <c r="I2" s="18"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -4152,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104E7A1A-6E8C-4FD5-8B9E-AE0B0D94D51E}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4168,37 +5217,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -4210,26 +5259,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46035</v>
       </c>
@@ -4264,11 +5313,11 @@
       <c r="F9" s="28">
         <v>1</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="40" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.5">
+    <row r="10" spans="1:10" ht="29">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -4278,7 +5327,7 @@
       <c r="F10" s="28">
         <v>2</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="40" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4286,21 +5335,21 @@
       <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="40" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="28">
         <v>3</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="40" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.5">
+    <row r="12" spans="1:10" ht="29">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="40" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4315,64 +5364,64 @@
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="39" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="17"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="39" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="39" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="39" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19" s="59"/>
+      <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="39" t="s">
         <v>239</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -4383,82 +5432,82 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="29">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="40" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="40" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="40" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="40" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="41" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="41" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4587,14 +5636,14 @@
       <c r="A37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
@@ -4656,16 +5705,16 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="39" t="s">
         <v>162</v>
       </c>
       <c r="E42" s="8"/>
@@ -4675,10 +5724,10 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -4686,7 +5735,7 @@
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="41" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4694,22 +5743,22 @@
       <c r="A46" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="57" t="s">
+      <c r="F46" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="57" t="s">
+      <c r="G46" s="39" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4845,10 +5894,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C55" s="8"/>
@@ -4858,7 +5907,7 @@
       <c r="G55" s="8"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="41" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4866,19 +5915,19 @@
       <c r="A59" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="D59" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="39" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4912,7 +5961,7 @@
       <c r="C61" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="39" t="s">
         <v>272</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -4998,10 +6047,10 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C68" s="8"/>
@@ -5010,30 +6059,30 @@
       <c r="F68" s="8"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="41" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="41" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="41" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="41" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="41" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5052,7 +6101,7 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5060,10 +6109,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26FF56-08DB-4B5B-8B52-D57FF9B15ED3}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A21:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5078,37 +6127,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -5120,26 +6169,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="3">
         <v>46035</v>
       </c>
@@ -5168,50 +6217,50 @@
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>234</v>
+      <c r="B9" s="66" t="s">
+        <v>295</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>228</v>
+      <c r="G9" s="68" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>235</v>
+      <c r="B10" s="66" t="s">
+        <v>296</v>
       </c>
       <c r="F10" s="28">
         <v>2</v>
       </c>
-      <c r="G10" s="58" t="s">
-        <v>149</v>
+      <c r="G10" s="68" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29">
       <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>237</v>
+      <c r="B11" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F11" s="28">
         <v>3</v>
       </c>
-      <c r="G11" s="58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29">
+      <c r="G11" s="68" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.5">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>236</v>
+      <c r="B12" s="66" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5219,70 +6268,70 @@
         <v>240</v>
       </c>
       <c r="C14" s="62"/>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="62"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="57" t="s">
+      <c r="F14" s="70"/>
+    </row>
+    <row r="15" spans="1:10" ht="29">
+      <c r="B15" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="F15" s="71" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.5">
       <c r="A16" s="17"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="57" t="s">
+      <c r="C16" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="57" t="s">
+      <c r="F16" s="67" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="58">
+      <c r="B17" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="57" t="s">
+      <c r="C17" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="57" t="s">
+      <c r="F17" s="67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72.5">
+      <c r="B18" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="59"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="57" t="s">
+      <c r="C18" s="66" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="41"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="39" t="s">
         <v>239</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -5292,123 +6341,138 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29">
-      <c r="A22" s="58" t="s">
+      <c r="B21" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="29">
+      <c r="A22" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="58" t="s">
+      <c r="B22" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.5">
+      <c r="A23" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="58" t="s">
+      <c r="B23" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="58">
+      <c r="A24" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29">
-      <c r="A25" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="59" t="s">
+      <c r="B24" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="41" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="59" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="64" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>226</v>
       </c>
     </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="35" t="s">
-        <v>148</v>
+      <c r="A33" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>160</v>
@@ -5417,16 +6481,16 @@
         <v>160</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>161</v>
@@ -5437,16 +6501,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>161</v>
@@ -5455,503 +6519,408 @@
         <v>160</v>
       </c>
       <c r="G35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="I35" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
+      <c r="A37" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="8" t="s">
-        <v>158</v>
+      <c r="A40" s="37" t="s">
+        <v>293</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="A42" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="59" t="s">
-        <v>269</v>
+      <c r="A44" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="57" t="s">
-        <v>156</v>
+      <c r="A46" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="F47" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>160</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-    </row>
-    <row r="51" spans="1:7">
+        <v>162</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="8" t="s">
-        <v>231</v>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="37" t="s">
+        <v>293</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="D53" s="8" t="s">
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="57" t="s">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F59" s="57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="D66" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="59" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="59" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="B71" s="59" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="B72" s="59" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="B73" s="59" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="B74" s="59" t="s">
-        <v>274</v>
-      </c>
+      <c r="B66" s="64" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" s="64" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" s="64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B37:I37"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -5962,6 +6931,8 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>